--- a/Question_Set2/Role-specific skills/Data Modeling Concepts.xlsx
+++ b/Question_Set2/Role-specific skills/Data Modeling Concepts.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a data consultant responsible for identifying the data requirements for an insurance company’s actuarial data mart. The actuarial staff you are engaging with do not know the technical details of the data source(s) they use or the field names in the enterprise database system.  How do you identify the data needed for the mart?', 'ques_type': 2, 'options': ['Walk the staff through the process they use to get the data.', 'Talk to the chief actuary about data needed for pricing.', 'Talk to the technical head about data sources.', 'Review staff work documents related to the pricing process.'], 'score': 'Walk the staff through the process they use to get the data.'}, {'title': "You have been tasked with creating a high-level conceptual model of an auto insurance company's rate-making process.  What must you do first to understand the primary tasks in the process?", 'ques_type': 2, 'options': ['Meet with the company’s chief executive to understand business requirements.', 'Talk to the staff of the underwriting department, which makes rules for policy application approvals.', 'Engage with the chief actuary and staff to understand the rating process.', 'Talk to the technology staff that interacts with the business regarding premium data.'], 'score': 'Meet with the company’s chief executive to understand business requirements.'}, {'title': 'You are a data modeler entrusted with creating a logical data model. You will be using an existing conceptual data model (CDM) of the premium rate-making process of an auto insurance company. The actuarial staff assigned to work with you on the model does not understand what a primary key is and can’t identify the primary key of any entity in the CDM.  How will you determine these primary keys?', 'ques_type': 2, 'options': ['Interview the company’s chief actuary and ask him to list the primary keys.', 'Query the actuarial staff on the tasks they perform for rate making and the data fields they use in each task.', 'Meet with the technology team to understand the data fields linked to the entities in the CDM.', 'Ask the actuarial staff to think about the data they use and set up a second meeting in two days.'], 'score': 'Interview the company’s chief actuary and ask him to list the primary keys.'}, {'title': 'True or false: As part of creating a physical data model, the modeler needs to identify the attributes of a table.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a data consultant responsible for identifying the data requirements for an insurance company\u2019s actuarial data mart. The actuarial staff you are engaging with do not know the technical details of the data source(s) they use or the field names in the enterprise database system.  How do you identify the data needed for the mart?",
+        "ques_type": 2,
+        "options": [
+            "Walk the staff through the process they use to get the data.",
+            "Talk to the chief actuary about data needed for pricing.",
+            "Talk to the technical head about data sources.",
+            "Review staff work documents related to the pricing process."
+        ],
+        "score": "Walk the staff through the process they use to get the data."
+    },
+    {
+        "title": "You have been tasked with creating a high-level conceptual model of an auto insurance company's rate-making process.  What must you do first to understand the primary tasks in the process?",
+        "ques_type": 2,
+        "options": [
+            "Meet with the company\u2019s chief executive to understand business requirements.",
+            "Talk to the staff of the underwriting department, which makes rules for policy application approvals.",
+            "Engage with the chief actuary and staff to understand the rating process.",
+            "Talk to the technology staff that interacts with the business regarding premium data."
+        ],
+        "score": "Meet with the company\u2019s chief executive to understand business requirements."
+    },
+    {
+        "title": "You are a data modeler entrusted with creating a logical data model. You will be using an existing conceptual data model (CDM) of the premium rate-making process of an auto insurance company. The actuarial staff assigned to work with you on the model does not understand what a primary key is and can\u2019t identify the primary key of any entity in the CDM.  How will you determine these primary keys?",
+        "ques_type": 2,
+        "options": [
+            "Interview the company\u2019s chief actuary and ask him to list the primary keys.",
+            "Query the actuarial staff on the tasks they perform for rate making and the data fields they use in each task.",
+            "Meet with the technology team to understand the data fields linked to the entities in the CDM.",
+            "Ask the actuarial staff to think about the data they use and set up a second meeting in two days."
+        ],
+        "score": "Interview the company\u2019s chief actuary and ask him to list the primary keys."
+    },
+    {
+        "title": "True or false: As part of creating a physical data model, the modeler needs to identify the attributes of a table.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
